--- a/data/respirometry/shallow/final_rates/800_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/800_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.2649030134657236</v>
+        <v>-0.2487194325456599</v>
       </c>
       <c r="AB2">
-        <v>-0.01059612053862895</v>
+        <v>-1015.760524303804</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.01059612053862895</v>
+        <v>-1015.760524303804</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.2811320687438414</v>
+        <v>-0.2716823259261335</v>
       </c>
       <c r="AB3">
-        <v>-0.01124528274975366</v>
+        <v>-1824.627959103851</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.01124528274975366</v>
+        <v>-1824.627959103851</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1885332558971582</v>
+        <v>-0.1793615222778885</v>
       </c>
       <c r="AB4">
-        <v>-0.007541330235886328</v>
+        <v>-806.9141686035284</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007541330235886328</v>
+        <v>-806.9141686035284</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2948655204867107</v>
+        <v>-0.2709094781434558</v>
       </c>
       <c r="AB5">
-        <v>-0.01179462081946843</v>
+        <v>-1071.028718384444</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01179462081946843</v>
+        <v>-1071.028718384444</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.3318451071622874</v>
+        <v>-0.3107962399977305</v>
       </c>
       <c r="AB6">
-        <v>-0.0132738042864915</v>
+        <v>-1678.520903275999</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.0132738042864915</v>
+        <v>-1678.520903275999</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.246842146694455</v>
+        <v>-0.2284405941259857</v>
       </c>
       <c r="AB7">
-        <v>-0.009873685867778198</v>
+        <v>-706.7439093074119</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.009873685867778198</v>
+        <v>-706.7439093074119</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.001102880300299092</v>
-      </c>
-      <c r="AB8">
-        <v>4.411521201196369E-05</v>
+        <v>0.001102594654015669</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>4.411521201196369E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.3099031930162315</v>
+        <v>0.2909704397192847</v>
       </c>
       <c r="AB9">
-        <v>0.01239612772064926</v>
+        <v>1188.312000317509</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.01239612772064926</v>
+        <v>1188.312000317509</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.3409217288158023</v>
+        <v>0.3294622653946687</v>
       </c>
       <c r="AB10">
-        <v>0.01363686915263209</v>
+        <v>2212.680044090349</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.01363686915263209</v>
+        <v>2212.680044090349</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.1977569716889783</v>
+        <v>0.1881365243198725</v>
       </c>
       <c r="AB11">
-        <v>0.007910278867559132</v>
+        <v>846.391272651695</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.007910278867559132</v>
+        <v>846.391272651695</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.3572021620869456</v>
+        <v>0.3281816441710751</v>
       </c>
       <c r="AB12">
-        <v>0.01428808648347782</v>
+        <v>1297.451710300513</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01428808648347782</v>
+        <v>1297.451710300513</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.4398055384225162</v>
+        <v>0.4119087632202087</v>
       </c>
       <c r="AB13">
-        <v>0.01759222153690065</v>
+        <v>2224.60049488608</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.01759222153690065</v>
+        <v>2224.60049488608</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.3040152114222194</v>
+        <v>0.2813515295124803</v>
       </c>
       <c r="AB14">
-        <v>0.01216060845688877</v>
+        <v>870.4384639606008</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.01216060845688877</v>
+        <v>870.4384639606008</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,18 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
